--- a/Windows/Depot API/Depot_API_Endpoints.xlsx
+++ b/Windows/Depot API/Depot_API_Endpoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -137,6 +137,15 @@
   <si>
     <t>Returns not only specified job, but all jobs</t>
   </si>
+  <si>
+    <t>get_routes_by_job_id.bat</t>
+  </si>
+  <si>
+    <t>get_routes_by_job_id_RESPONSE.html</t>
+  </si>
+  <si>
+    <t>it does not work</t>
+  </si>
 </sst>
 </file>
 
@@ -151,13 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +167,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,12 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -224,17 +238,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +594,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +636,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -627,7 +650,7 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -638,12 +661,18 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -655,7 +684,7 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -672,7 +701,7 @@
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4"/>
@@ -687,7 +716,7 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -696,14 +725,14 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -717,10 +746,10 @@
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -734,10 +763,10 @@
       <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Windows/Depot API/Depot_API_Endpoints.xlsx
+++ b/Windows/Depot API/Depot_API_Endpoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>it does not work</t>
+  </si>
+  <si>
+    <t>get_channel.bat</t>
+  </si>
+  <si>
+    <t>/depots/api/v0.1/channel/</t>
+  </si>
+  <si>
+    <t>get_channel_RESPONSE.json</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,100 +666,98 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>32</v>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -758,32 +765,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Windows/Depot API/Depot_API_Endpoints.xlsx
+++ b/Windows/Depot API/Depot_API_Endpoints.xlsx
@@ -138,15 +138,6 @@
     <t>Returns not only specified job, but all jobs</t>
   </si>
   <si>
-    <t>get_routes_by_job_id.bat</t>
-  </si>
-  <si>
-    <t>get_routes_by_job_id_RESPONSE.html</t>
-  </si>
-  <si>
-    <t>it does not work</t>
-  </si>
-  <si>
     <t>get_channel.bat</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>get_channel_RESPONSE.json</t>
+  </si>
+  <si>
+    <t>get_routes_by_depot_id.bat</t>
+  </si>
+  <si>
+    <t>get_routes_by_depot_id_RESPONSE.json</t>
+  </si>
+  <si>
+    <t>It works. Returns empty array of the routes. I need know, how to get routes in this API</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,17 +671,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -689,13 +689,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Windows/Depot API/Depot_API_Endpoints.xlsx
+++ b/Windows/Depot API/Depot_API_Endpoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>It works. Returns empty array of the routes. I need know, how to get routes in this API</t>
+  </si>
+  <si>
+    <t>/depots/api/v0.1/route/path/{route_id}</t>
+  </si>
+  <si>
+    <t>I don't know how do an example for this endpoint</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,66 +721,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -782,32 +784,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
